--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 14. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 14. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>ETİLER                    MAHALLESİ 1268 SOKAK NO:14/301  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t>YENİŞEHİR                 MAHALLESİ GAZİLER CADDESİ NO:353/72  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t>YENİ MAHALLE MAHALLESİ 8764/2 SK. NO: 11  İÇ KAPI NO: 6 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> ÇINAR MAHALLESİ 5003/2 SK.  NO: 3 -5/309  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t>AKDENİZ                   MAHALLESİ 1334 SOKAK   NO: 9  İÇ KAPI NO: 11 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t>AKDENİZ                   MAHALLESİ 1334 SOKAK NO:9/32  ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:45/3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:45  ÇANKAYA / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t xml:space="preserve"> 5748 SOKAK NO:1-3 D:1 M.T.K SİTESİ ÇAMDİBİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t xml:space="preserve"> AKTEPE MAHALLESİ 140 SK. NO: 10/ GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 260 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>YENİGÜN                   MAHALLESİ 1307 SOKAK NO:10/B/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t xml:space="preserve"> GÜVENDİK MAH. HARBİYE CAD. NO: 117/2 İÇ KAPI NO: 6 URLA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +987,21 @@
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +1025,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:85/A KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +1063,21 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI SÜREYYA REYENT İŞHAN BLOK  NO: 63  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +1101,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. MİMAR KEMALETTİN CAD. ATALAY ISHANI BLOK  NO: 48A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +1139,21 @@
           <t>KORUTÜRK MAHALLESİ PALMİYE SOKAK NO:11/B  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748 SK.  NO: 59  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5747/8 SK.  NO: 1  B-/21-  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t xml:space="preserve"> MERSİNLİ MAH. 2839 SK. NO: 10 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:5/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -980,6 +1325,21 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1003,6 +1363,21 @@
           <t>MANAVKUYU MAHALLESİ SAKARYA CAD. NO:36/C  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1026,6 +1401,21 @@
           <t xml:space="preserve"> 746 SOKAK NO:46  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1049,6 +1439,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 672/30 SK. NO: 2A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1072,6 +1477,21 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO: 55  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1091,6 +1511,21 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1114,6 +1549,21 @@
           <t xml:space="preserve"> 5748 SOKAK NO:1/3/A M.T.K SİTESİ ÇAMDİBİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1137,6 +1587,21 @@
           <t xml:space="preserve"> 5747/1 SOK. NO:25 6008 ADA MTK SİTESİ ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1160,6 +1625,21 @@
           <t xml:space="preserve"> MEVLANA MAH. 1751 SK. MEHMET EMİN KAÇ SİTESİ NO: 4 İÇ KAPI NO: A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1183,6 +1663,21 @@
           <t xml:space="preserve"> 4049/3 SOKAK NO:2  YEŞİLOVA BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1206,6 +1701,21 @@
           <t xml:space="preserve"> NECATİ BEY BULVARI NO:34/202  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1229,6 +1739,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 4043 SK.  NO: 4  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1252,6 +1777,21 @@
           <t xml:space="preserve"> 1329 SOKAK NO:11  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1275,6 +1815,21 @@
           <t xml:space="preserve"> 10014 SOKAK NO:5  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1298,6 +1853,21 @@
           <t xml:space="preserve"> OĞLANANASI ATATÜRK MAH. SAİM ÇIKRIKÇI CAD. NO: 135 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1321,6 +1891,21 @@
           <t xml:space="preserve"> AYDIN MAHALLESİ 4311 SK.  NO: 10  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1344,6 +1929,21 @@
           <t xml:space="preserve"> 914 SOKAK NO:58  / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1367,6 +1967,21 @@
           <t>MERİÇ                     MAHALLESİ 5748 SOKAK NO:73/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1390,6 +2005,21 @@
           <t xml:space="preserve"> ESENLİK MAH. 9033 SK.  NO: 34 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1413,6 +2043,21 @@
           <t xml:space="preserve"> YENİGÜN MAHALLESİ 1310 SK.  NO: 13  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1436,6 +2081,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/5 SK. NO: 15 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1459,6 +2119,21 @@
           <t>SEYHAN                    MAHALLESİ 630 SK. NO:6  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1482,6 +2157,21 @@
           <t xml:space="preserve"> KAHRAMANDERE MAHALLESİ 709 SK.  NO: 4 /80  GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1505,6 +2195,21 @@
           <t>KONAK                     MAHALLESİ İPEK PAZARI CADDESİ  NO: 22 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1528,6 +2233,21 @@
           <t xml:space="preserve"> DOĞUŞ CAD.3/19 SK NO:6 KAT: EKSİ 1 VE ZEMİN BEGOS BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1551,6 +2271,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4115 SK. NO: 5 İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1574,6 +2309,21 @@
           <t>SEVGİ                     MAHALLESİ 663 SOKAK ASIL İŞ MERKEZI SİTESİ  NO: 18  İÇ KAPI NO: 1 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1597,6 +2347,21 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI NO: 60  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1620,6 +2385,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4076 SOKAK NO: 19  İÇ KAPI NO: Z1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1643,6 +2423,21 @@
           <t xml:space="preserve"> İPEK PAZARI CADDESİ NO:24  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1666,6 +2461,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5739 SK. NO: 2 İÇ KAPI NO: 103 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1689,6 +2499,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1338 SK. MARLA İŞ MERKEZİ BLOK  NO: 9  İÇ KAPI NO: 71 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1712,6 +2537,21 @@
           <t xml:space="preserve"> LALELİ MAH. 421 SK. NO: 26 İÇ KAPI NO: 3 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1735,6 +2575,21 @@
           <t xml:space="preserve"> SEKİZ EYLÜL MAH. KIROVASI KÜME EVLERİ NO: 20/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1758,6 +2613,21 @@
           <t>KAZIMDİRİK MAHALLESİ 372/14 SOKAK NO: 17 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1781,6 +2651,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 4044 SK. NO: 14 İÇ KAPI NO: Z1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1804,6 +2689,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. AK İŞHANI NO: 64 İÇ KAPI NO: 7 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1827,6 +2727,21 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:53  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1850,6 +2765,21 @@
           <t>FATİH                     MAHALLESİ 1191 SOK. NO:32 BAĞIMSIZ BÖLÜM 1 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1873,6 +2803,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAH. 4029 SK. NO: 13A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1896,6 +2841,21 @@
           <t>AKDENİZ                   MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:47  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1919,6 +2879,21 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO:24/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1942,6 +2917,21 @@
           <t>AKDENİZ                   MAHALLESİ 1334 SOKAK NO: 10 A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1965,6 +2955,21 @@
           <t xml:space="preserve"> FEVZİPAŞA BULV. NO:38  / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1988,6 +2993,21 @@
           <t xml:space="preserve"> 1326 SOKAK NO:5/2  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2011,6 +3031,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4053 SK.  NO: 87  A-/-  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2034,6 +3069,21 @@
           <t>KARACAOĞLAN MAHALLESİ 6165 SOKAK A BLOK Apt.  NO: 6 B BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2053,6 +3103,21 @@
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2076,6 +3141,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. 1310 SK. NO: 29 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2099,6 +3179,21 @@
           <t xml:space="preserve"> KONAK MAHALLESİ 913 SK.  NO: 49  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2122,6 +3217,21 @@
           <t xml:space="preserve"> KONAK MAH. 904 SK. NO: 44-46 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2145,6 +3255,21 @@
           <t>TUNA                      MAHALLESİ 5530 SOKAK NO:22/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2168,6 +3293,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/11 SK. NO: 6 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2191,6 +3331,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. 1849/5 SK. DOĞRU NO: 16 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2214,6 +3369,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10021 SK.  NO: 5  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2237,6 +3407,21 @@
           <t>AKDENİZ                   MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:89 AS HAN BLOK  İÇ KAPI NO: 2 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2260,6 +3445,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7081 SOKAK NO:16/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2283,6 +3483,21 @@
           <t xml:space="preserve"> ATAŞEHİR MAH. 8291/1 SK. B2 NO: 4B İÇ KAPI NO: 57 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2306,6 +3521,21 @@
           <t>YEŞİLOVA MAHALLESİ 4071 SK. NO:2/A ÖZEL BLOK BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2329,6 +3559,21 @@
           <t>MENDERES MAHALLESİ 1162 SOK. NO:20/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2352,6 +3597,21 @@
           <t xml:space="preserve"> 914 SOKAK NO:29  / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2375,6 +3635,21 @@
           <t xml:space="preserve"> GAZİ BULVARI NO:3  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2398,6 +3673,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4088 SK.  NO: 109 A/0  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2421,6 +3711,21 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO:39  DAİRE:2511 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2444,6 +3749,21 @@
           <t>KOŞUKAVAK MAHALLESİ ABDİ İPEKÇİ CAD. NO: 9A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2467,6 +3787,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4076 SK. NO: 19 İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2490,6 +3825,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ 1333 SK.  NO: 11  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2513,6 +3863,21 @@
           <t xml:space="preserve"> 1333 SOKAK NO:9/A  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2536,6 +3901,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 2 CAD. NO:135  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2559,6 +3939,21 @@
           <t>YENİ MAHALLE MAHALLESİ ESKİ HAVAALANI CAD.  B7 BLOK  NO: 108N  İÇ KAPI NO: 29  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2582,6 +3977,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4049 SOKAK NO:33/1A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2605,6 +4015,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/2 SK. NO: 19 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2628,6 +4053,21 @@
           <t>MERİÇ                     MAHALLESİ 5620 SOKAK NO:8  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2651,6 +4091,21 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:47  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2674,6 +4129,21 @@
           <t xml:space="preserve"> MEHMET AKİF ERSOY MAH. 1.ÖTEYAKA KÜMEEVLERİ NO:67E KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2697,6 +4167,21 @@
           <t xml:space="preserve"> 746 SK. NO:18 ADA NO;6013 M.T.K SİTESİ KAT:1 ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2720,6 +4205,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:3/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2743,6 +4243,21 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:3/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2766,6 +4281,21 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO:7/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2789,6 +4319,21 @@
           <t>BUCAOSB MAHALLESİ 3/20 SK. NO:5  ILGAZ KIDS BLOK DAİRE:1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2812,6 +4357,21 @@
           <t>IRMAK                     MAHALLESİ 38/2 SOKAK NO:47/3A GAZI BATIKENT SİTESİ D BLOK   GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2831,6 +4391,21 @@
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2854,6 +4429,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. YEŞİLLİK CAD.  NO: 387 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2877,6 +4467,21 @@
           <t xml:space="preserve"> 747/2 SOK. NO:37  ALTINDAĞ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2900,6 +4505,21 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:26/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2923,6 +4543,21 @@
           <t xml:space="preserve"> FATİH MAH. 1194/1 SK. NO: 4 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2946,6 +4581,21 @@
           <t xml:space="preserve"> 1398 SOKAK NO:5  DAİRE:1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2969,6 +4619,21 @@
           <t xml:space="preserve"> AYDIN MAH. YEŞİLLİK CAD. NO: 566/2 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2992,6 +4657,21 @@
           <t>YUNUS EMRE MAHALLESİ 4042 SK. NO:21  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3015,6 +4695,21 @@
           <t xml:space="preserve"> 1334 SOKAK NO:6  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3038,6 +4733,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 20/1   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3061,6 +4771,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4076 SK.  NO: 64  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3084,6 +4809,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAH. 5482 SK. NO: 36A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3107,6 +4847,21 @@
           <t>KÜLTÜR                    MAHALLESİ CUMHURİYET BULVARI ANIT İŞ MERKEZİ BLOK  NO: 140-2  İÇ KAPI NO:2 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3130,6 +4885,21 @@
           <t xml:space="preserve"> 1329 SOKAK NO:7/A  / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3153,6 +4923,21 @@
           <t xml:space="preserve"> 1337 SOKAK NO:1/604  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3176,6 +4961,21 @@
           <t>AKDENİZ                   MAHALLESİ 1334 SOKAK NO:1/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3199,6 +4999,21 @@
           <t xml:space="preserve"> 904 SOK. NO:29  HİSARÖNÜ / İZMİR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3222,6 +5037,21 @@
           <t xml:space="preserve"> ATATÜRK MAH. 853 SK. NO: 8 İÇ KAPI NO: - BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3245,6 +5075,21 @@
           <t xml:space="preserve"> FEVZİPAŞA       NO:59/42 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3268,6 +5113,21 @@
           <t>AKDENİZ                   MAHALLESİ NECATİBEY BULVARI NO:28/1C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3291,6 +5151,21 @@
           <t xml:space="preserve"> ADATEPE MAH. DOĞUŞ CAD.  NO: 207AG  İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3314,6 +5189,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 1N BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3337,6 +5227,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1333 SK. NO: 9A İÇ KAPI NO: A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3360,6 +5265,21 @@
           <t xml:space="preserve"> 903 SOK. NO:46 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3383,6 +5303,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5745 SK. NO: 2/1C BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3406,6 +5341,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:22  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3429,6 +5379,21 @@
           <t>TUNA                      MAHALLESİ 5504 SOKAK NO:24/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3452,6 +5417,21 @@
           <t xml:space="preserve"> MERİÇ MAH. KEMALPAŞA CAD. NO: 99A İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3475,6 +5455,21 @@
           <t>FATİH                     MAHALLESİ ÇAMLIK CADDESİ NO:52  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3498,6 +5493,21 @@
           <t>İZKENT                    MAHALLESİ 1302 SK. PINAR BLOK  NO: 4  İÇ KAPI NO: 4 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3521,6 +5531,21 @@
           <t>KAVAKLIDERE MAHALLESİ ÇITAK SOKAK NO:8/D  BORNOVA BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3544,6 +5569,21 @@
           <t xml:space="preserve"> 904 SOKAK NO:27  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3567,6 +5607,21 @@
           <t xml:space="preserve"> SEYHAN MAHALLESİ 661 SK.  NO: 77/2  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3590,6 +5645,21 @@
           <t xml:space="preserve"> YEŞİLLİK CAD. NO:230 SELGEÇEN MODEKA İŞ MERKEZİ İŞYERİ NO:2 D KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3609,6 +5679,21 @@
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3632,6 +5717,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:71 MİMAR KEMALETTİN İŞ MERKEZİ KAT:5 DAİRE:502 ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3655,6 +5755,21 @@
           <t>AKDENİZ                   MAHALLESİ 1335 SOKAK ADNAN ŞINLAK İŞHANI BLOK  NO:7A  İÇKAPI NO:A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3678,6 +5793,21 @@
           <t xml:space="preserve"> GÜRPINAR MAHALLESİ 7234 SK.  NO: 2  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3701,6 +5831,21 @@
           <t xml:space="preserve"> FEVZİPAŞA BULVARI NO:49/A  / İZMİR</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3724,6 +5869,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ GAZİ BLV.  NO: 60 D/_  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3747,6 +5907,21 @@
           <t xml:space="preserve"> 1333 SOKAK NO:5/A  / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3770,6 +5945,21 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:23/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3793,6 +5983,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5745/1 SK. NO: 12 İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3816,6 +6021,21 @@
           <t xml:space="preserve"> 903 SK NO:48  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3839,6 +6059,21 @@
           <t xml:space="preserve"> TUNA MAH. 5522 SK. NO: 32A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3862,6 +6097,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. NECATİBEY BUL. DOĞAN GÜVEN İŞ MERKEZİ BLOK  NO: 21  İÇ KAPI NO: MUSTAKİL KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3885,6 +6135,21 @@
           <t xml:space="preserve"> 4012 SK. NO:34/A KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3908,6 +6173,21 @@
           <t xml:space="preserve"> SAİM ÇIKRIKÇI CD. NO:204  YEŞİLYURT KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3931,6 +6211,21 @@
           <t xml:space="preserve"> ADATEPE YAHYA KEMAL BEYATLI   NO:110 BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3954,6 +6249,21 @@
           <t>İSMET KAPTAN              MAHALLESİ HÜRRİYET BULV. MUSULLUGİL IŞ MERKEZI BLOK  NO: 5/1  İÇ KAPI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3977,6 +6287,21 @@
           <t>ETİLER                    MAHALLESİ BOZKURT CADDESİ NO:21/B  BASMANE / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4000,6 +6325,21 @@
           <t xml:space="preserve"> GÜRPINAR MAH. 7232/8 SK. AY-KOOP SİTESİ  NO: 17A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4023,6 +6363,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 5733 SK.  NO: 123/1A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4046,6 +6401,21 @@
           <t xml:space="preserve"> 5745/1 SK. NO:8  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4069,6 +6439,21 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO:41 MEGAPOL TOWER BLOK DAİRE:101 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4092,6 +6477,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/7 SOKAK NO:11/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4115,6 +6515,21 @@
           <t xml:space="preserve"> FATİH MAH. ÇAMLIK CAD.  NO: 54 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4138,6 +6553,21 @@
           <t xml:space="preserve"> FATİH MAH.ÇAMLIK CAD.NO:54 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4161,6 +6591,21 @@
           <t xml:space="preserve"> FATİH MAH. 1187 SK. NO: 10C GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4184,6 +6629,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 3408 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4207,6 +6667,21 @@
           <t xml:space="preserve"> 5747/2 SOKAK  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4230,6 +6705,21 @@
           <t xml:space="preserve"> GAZİLER CAD. NO:353/101 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4253,6 +6743,21 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SOKAK NO:63  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4276,6 +6781,21 @@
           <t xml:space="preserve"> KOŞUKAVAK MAH. ABDİ İPEKÇİ CAD. KARADUMAN NO: 33A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4299,6 +6819,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4061 SOKAK NO: 22A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4322,6 +6857,21 @@
           <t>MEVLANA                   MAHALLESİ 1744 SOKAK NO: 21A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4345,6 +6895,21 @@
           <t>HÜRRİYET                  MAHALLESİ MENDERES CADDESI NO:240/A D:A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4368,6 +6933,21 @@
           <t xml:space="preserve"> 1315 SOKAK NO:16 Z-5 ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4387,6 +6967,21 @@
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4410,6 +7005,21 @@
           <t xml:space="preserve"> 10026 SOKAK NO:14  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4433,6 +7043,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO: 76 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4456,6 +7081,21 @@
           <t xml:space="preserve"> 1307 SOKAK NO:10/A  ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4479,6 +7119,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 4046 SK.  NO: 21/1  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4502,6 +7157,21 @@
           <t>ADALET MAHALLESİ 1601  SOK. NO:14  DAİRE:101 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4525,6 +7195,21 @@
           <t>M.ALİ AKMAN MAHALLESİ 20/1 SOK. ERBİLEN BLOK  NO: 1  İÇ KAPI NO: 6  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4548,6 +7233,21 @@
           <t xml:space="preserve"> 2201/1 SOKAK NO:4/A  / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4571,6 +7271,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4088 SOKAK NO: 59A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4594,6 +7309,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. NO: 2 B BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4617,6 +7347,21 @@
           <t xml:space="preserve"> 1329 SOKAK NO:13  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4640,6 +7385,21 @@
           <t xml:space="preserve"> ADALET MAH. OZAN ABAY CAD.  NO: 30  İÇ KAPI NO: Z18 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4663,6 +7423,21 @@
           <t>AKDENİZ                   MAHALLESİ 1333 SOKAK NO:12/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4686,6 +7461,21 @@
           <t xml:space="preserve"> 4185 SOKAK NO:3  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4709,6 +7499,21 @@
           <t xml:space="preserve"> 1310 SOKAK NO:17/B  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4732,6 +7537,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4076 SOKAK NO:37/A ABDURRAHMAN ÇAKAR Sit BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4755,6 +7575,21 @@
           <t>ATATÜRK                   MAHALLESİ 925 SOKAK ZÜMRÜT EVLERİ SİTESİ  NO: 86 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4778,6 +7613,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4076 SK. NURETTİN ÖZER NO: 41 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4801,6 +7651,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4076 SOKAK NURETTİN ÖZER BLOK  NO: 41 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4824,6 +7689,21 @@
           <t xml:space="preserve"> MOPAK ENDÜSTRİ MESLEK LİSESİ ÇIKMAZI NO:3/1  KEMALPAŞA O.S.B. KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4847,6 +7727,21 @@
           <t>VATAN MAHALLESİ İHSAN ALYANAK BLV. NO: 99 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4870,6 +7765,21 @@
           <t xml:space="preserve"> HALİT ZİYA BULVARI NO:41  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4893,6 +7803,21 @@
           <t xml:space="preserve"> 1335 SOKAK NO:10  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4916,6 +7841,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/5 SK. NO: 5 İÇ KAPI NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4939,6 +7879,21 @@
           <t xml:space="preserve"> KARABAĞLAR MAH. 5770/8 SK. NO: 7 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4962,6 +7917,21 @@
           <t xml:space="preserve"> ÜÇKUYULAR MAH. 9 SK. NO: 7A İÇ KAPI NO: A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4985,6 +7955,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1334 SK. NO: 7C İÇ KAPI NO: C KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5008,6 +7993,21 @@
           <t>AKDENİZ                   MAHALLESİ 1329 SOKAK NO:16  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5031,6 +8031,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 4046 SOKAK NO:3  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5054,6 +8069,21 @@
           <t xml:space="preserve"> YEŞİLLİK CAD. NO:227/5  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5077,6 +8107,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. CUMHURİYET BUL. NO: 120 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5100,6 +8145,21 @@
           <t>AOSB MAHALLESİ 10014 SK. NO:5  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5123,6 +8183,21 @@
           <t>SEYHAN MAHALLESİ 661/5 SOKAK NO:9  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5146,6 +8221,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:41/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5169,6 +8259,21 @@
           <t xml:space="preserve"> 10006/1 SOK. NO:31  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5192,6 +8297,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5746/8 SK.  NO: 24/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5215,6 +8335,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1331 SK. DEREBAŞ IŞ MERKEZI NO: 4 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5238,6 +8373,21 @@
           <t>FATİH MAHALLESİ 1191 SK. NO:32  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5261,6 +8411,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 4042 SK. NO: 27  İÇ KAPI NO: Z1  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5284,6 +8449,21 @@
           <t xml:space="preserve"> ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5307,6 +8487,21 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:48 ATALAY ISHANI BLOK  İÇ KAPI NO: 8 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5330,6 +8525,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. MİMAR KEMALETTİN CAD. ATALAY ISHANI NO: 48 İÇ KAPI NO: 8 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5353,6 +8563,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/7 SK. NO: 2B KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5376,6 +8601,21 @@
           <t>MERİÇ                     MAHALLESİ 5646 SOKAK NO:30/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5399,6 +8639,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5422,6 +8677,21 @@
           <t xml:space="preserve"> BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5445,6 +8715,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4085 SK.  NO: 3 -5  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5468,6 +8753,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO: 39  İÇ KAPI NO: 3408 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5491,6 +8791,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 4042 SOKAK NO: 11 A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5514,6 +8829,21 @@
           <t>KARACAOĞLAN               MAHALLESİ 6170 SOKAK NO:11/30  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5537,6 +8867,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4070 SK.  NO: 55 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5560,6 +8905,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOK. NO:78  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5583,6 +8943,21 @@
           <t>EGEMENLİK MAHALLESİ 6150 SOKAK NO: 8A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5606,6 +8981,21 @@
           <t>MERİÇ                     MAHALLESİ 5619 SOKAK NO: 1/B1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5629,6 +9019,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESI NO:39  ALTINDAĞ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5652,6 +9057,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4141 SOKAK NO: 22A  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5675,6 +9095,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:43  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5698,6 +9133,21 @@
           <t xml:space="preserve"> 5745/2 SOKAK NO:6 M.T.K.SİTESİ ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5721,6 +9171,21 @@
           <t xml:space="preserve"> BOSTANLI MAH. CENGİZ KOCATOROS SK. ŞÜKRİYEHANIM NO: 80 İÇ KAPI NO: 14 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5744,6 +9209,21 @@
           <t xml:space="preserve"> BAĞYURDU İZMİR CAD. NO:45/C KASIMPAŞA MAH KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5767,6 +9247,21 @@
           <t xml:space="preserve"> AKDENİZ GAZİ BULVARI   NO:59-B/ZEMİNKAT KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5790,6 +9285,21 @@
           <t xml:space="preserve"> MİMAR KEMALETTİN CADDESİ NO:80/A  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5813,6 +9323,21 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:3/B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5836,6 +9361,21 @@
           <t xml:space="preserve"> FEVZİPAŞA BULVARI NO:36  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5859,6 +9399,21 @@
           <t xml:space="preserve"> 4018 SOKAK NO:1  DAİRE:4 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5882,6 +9437,21 @@
           <t xml:space="preserve"> MUAMMER AKAR MAH. 45 SK. DİĞDEM NO: 22 İÇ KAPI NO: 10 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5905,6 +9475,21 @@
           <t>BUCA OSB MAHALLESİ 2/20 SOKAK NO:57 ZEMİN KAT (BEGOS 3. BÖLGE) BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5928,6 +9513,21 @@
           <t>AKDENİZ                   MAHALLESİ 1338 SOKAK NO:28 İÇ KAPI NO: Z1  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5951,6 +9551,21 @@
           <t xml:space="preserve"> DOĞANLAR MAH. 1503 SK. NO: 21A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5974,6 +9589,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK MANİFATURACILAR CAMİSİ Apt.  NO: 27/P4 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5997,6 +9627,21 @@
           <t xml:space="preserve"> 1313 SOKAK NO:22/A  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6020,6 +9665,21 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. DOĞAN GÜVEN İŞ MERKEZİ Apt.  NO: 52 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6043,6 +9703,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:3 İRFAN GİYİM Apt.   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6066,6 +9741,21 @@
           <t>ETİLER MAHALLESİ BOZKURT CAD. NO:23/A  KAHRAMANLAR KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6089,6 +9779,21 @@
           <t xml:space="preserve"> 1316 SOKAK NO:16  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6112,6 +9817,21 @@
           <t xml:space="preserve"> CUMHURİYET BLV. NO:71/201  PASAPORT KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6133,6 +9853,21 @@
       <c r="E249" t="inlineStr">
         <is>
           <t xml:space="preserve"> KAMİL TUNCA BULV. NO:141  ZEMİN KAT ÇAMDİBİ BORNOVA/İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>KUMAŞ VE TUHAFİYE GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 14. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 14. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="26" customWidth="1" min="7" max="7"/>
     <col width="148" customWidth="1" min="8" max="8"/>
     <col width="100" customWidth="1" min="9" max="9"/>
-    <col width="31" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>ETİLER MAHALLESİ 1268 SOKAK NO:14/301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>YENİŞEHİR MAHALLESİ GAZİLER CADDESİ NO:353/72 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>YENİ MAHALLE MAHALLESİ 8764/2 SK. NO: 11 İÇ KAPI NO: 6 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>ÇINAR MAHALLESİ 5003/2 SK. NO: 3 -5/309 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO: 9 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO:9/32 ÇANKAYA KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>AKTEPE MAHALLESİ 140 SK. NO: 10/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 260 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>YENİGÜN MAHALLESİ 1307 SOKAK NO:10/B/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>GÜVENDİK MAH. HARBİYE CAD. NO: 117/2 İÇ KAPI NO: 6 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI SÜREYYA REYENT İŞHAN BLOK NO: 63 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>AKDENİZ MAH. MİMAR KEMALETTİN CAD. ATALAY ISHANI BLOK NO: 48A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>KORUTÜRK MAHALLESİ PALMİYE SOKAK NO:11/B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>MERİÇ MAH. 5748 SK. NO: 59 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>MERİÇ MAHALLESİ 5747/8 SK. NO: 1 B-/21- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>MERSİNLİ MAH. 2839 SK. NO: 10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:5/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>MANAVKUYU MAHALLESİ SAKARYA CAD. NO:36/C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>İNÖNÜ MAH. 672/30 SK. NO: 2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO: 55 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>MEVLANA MAH. 1751 SK. MEHMET EMİN KAÇ SİTESİ NO: 4 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4043 SK. NO: 4 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>OĞLANANASI ATATÜRK MAH. SAİM ÇIKRIKÇI CAD. NO: 135 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>AYDIN MAHALLESİ 4311 SK. NO: 10 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>MERİÇ MAHALLESİ 5748 SOKAK NO:73/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ESENLİK MAH. 9033 SK. NO: 34 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>YENİGÜN MAHALLESİ 1310 SK. NO: 13 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>MERİÇ MAH. 5746/5 SK. NO: 15 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>SEYHAN MAHALLESİ 630 SK. NO:6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>KAHRAMANDERE MAHALLESİ 709 SK. NO: 4 /80 GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>KONAK MAHALLESİ İPEK PAZARI CADDESİ NO: 22 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>YEŞİLOVA MAH. 4115 SK. NO: 5 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>SEVGİ MAHALLESİ 663 SOKAK ASIL İŞ MERKEZI SİTESİ NO: 18 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BULVARI NO: 60 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>YEŞİLOVA MAHALLESİ 4076 SOKAK NO: 19 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>MERİÇ MAH. 5739 SK. NO: 2 İÇ KAPI NO: 103 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>AKDENİZ MAH. 1338 SK. MARLA İŞ MERKEZİ BLOK NO: 9 İÇ KAPI NO: 71 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>LALELİ MAH. 421 SK. NO: 26 İÇ KAPI NO: 3 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>SEKİZ EYLÜL MAH. KIROVASI KÜME EVLERİ NO: 20/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>KAZIMDİRİK MAHALLESİ 372/14 SOKAK NO: 17 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>AŞIK VEYSEL MAH. 4044 SK. NO: 14 İÇ KAPI NO: Z1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. AK İŞHANI NO: 64 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:53 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>FATİH MAHALLESİ 1191 SOK. NO:32 BAĞIMSIZ BÖLÜM 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>YUNUS EMRE MAH. 4029 SK. NO: 13A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:47 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO:24/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO: 10 A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>YEŞİLOVA MAHALLESİ 4053 SK. NO: 87 A-/- BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6165 SOKAK A BLOK Apt. NO: 6 B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>YENİGÜN MAH. 1310 SK. NO: 29 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>KONAK MAHALLESİ 913 SK. NO: 49 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>KONAK MAH. 904 SK. NO: 44-46 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>TUNA MAHALLESİ 5530 SOKAK NO:22/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>MERİÇ MAH. 5747/11 SK. NO: 6 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>BAHÇELİEVLER MAH. 1849/5 SK. DOĞRU NO: 16 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>AOSB MAHALLESİ 10021 SK. NO: 5 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:89 AS HAN BLOK İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>KEMALPAŞA MAHALLESİ 7081 SOKAK NO:16/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ATAŞEHİR MAH. 8291/1 SK. B2 NO: 4B İÇ KAPI NO: 57 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>YEŞİLOVA MAHALLESİ 4071 SK. NO:2/A ÖZEL BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>MENDERES MAHALLESİ 1162 SOK. NO:20/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SK. NO: 109 A/0 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>ADALET MAHALLESİ MANAS BUL. NO:39 DAİRE:2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>KOŞUKAVAK MAHALLESİ ABDİ İPEKÇİ CAD. NO: 9A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>YEŞİLOVA MAH. 4076 SK. NO: 19 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>AKDENİZ MAHALLESİ 1333 SK. NO: 11 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 2 CAD. NO:135 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>YENİ MAHALLE MAHALLESİ ESKİ HAVAALANI CAD. B7 BLOK NO: 108N İÇ KAPI NO: 29 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>YEŞİLOVA MAHALLESİ 4049 SOKAK NO:33/1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>MERİÇ MAH. 5747/2 SK. NO: 19 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>MERİÇ MAHALLESİ 5620 SOKAK NO:8 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:47 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>MEHMET AKİF ERSOY MAH. 1.ÖTEYAKA KÜMEEVLERİ NO:67E KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:3/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/33 SOKAK NO:3/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO:7/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>BUCAOSB MAHALLESİ 3/20 SK. NO:5 ILGAZ KIDS BLOK DAİRE:1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>IRMAK MAHALLESİ 38/2 SOKAK NO:47/3A GAZI BATIKENT SİTESİ D BLOK GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>AŞIK VEYSEL MAH. YEŞİLLİK CAD. NO: 387 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:26/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>FATİH MAH. 1194/1 SK. NO: 4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>AYDIN MAH. YEŞİLLİK CAD. NO: 566/2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>YUNUS EMRE MAHALLESİ 4042 SK. NO:21 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 20/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>YEŞİLOVA MAHALLESİ 4076 SK. NO: 64 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>GAZİ OSMAN PAŞA MAH. 5482 SK. NO: 36A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>KÜLTÜR MAHALLESİ CUMHURİYET BULVARI ANIT İŞ MERKEZİ BLOK NO: 140-2 İÇ KAPI NO:2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>AKDENİZ MAHALLESİ 1334 SOKAK NO:1/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>ATATÜRK MAH. 853 SK. NO: 8 İÇ KAPI NO: - BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>AKDENİZ MAHALLESİ NECATİBEY BULVARI NO:28/1C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>ADATEPE MAH. DOĞUŞ CAD. NO: 207AG İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1N BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>AKDENİZ MAH. 1333 SK. NO: 9A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>MERİÇ MAH. 5745 SK. NO: 2/1C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>TUNA MAHALLESİ 5504 SOKAK NO:24/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>MERİÇ MAH. KEMALPAŞA CAD. NO: 99A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>FATİH MAHALLESİ ÇAMLIK CADDESİ NO:52 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>İZKENT MAHALLESİ 1302 SK. PINAR BLOK NO: 4 İÇ KAPI NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>KAVAKLIDERE MAHALLESİ ÇITAK SOKAK NO:8/D BORNOVA BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>SEYHAN MAHALLESİ 661 SK. NO: 77/2 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>AKDENİZ MAHALLESİ 1335 SOKAK ADNAN ŞINLAK İŞHANI BLOK NO:7A İÇKAPI NO:A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>GÜRPINAR MAHALLESİ 7234 SK. NO: 2 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. NO: 60 D/_ KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:23/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>MERİÇ MAH. 5745/1 SK. NO: 12 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>TUNA MAH. 5522 SK. NO: 32A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>AKDENİZ MAH. NECATİBEY BUL. DOĞAN GÜVEN İŞ MERKEZİ BLOK NO: 21 İÇ KAPI NO: MUSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>İSMET KAPTAN MAHALLESİ HÜRRİYET BULV. MUSULLUGİL IŞ MERKEZI BLOK NO: 5/1 İÇ KAPI KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>ETİLER MAHALLESİ BOZKURT CADDESİ NO:21/B BASMANE / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>GÜRPINAR MAH. 7232/8 SK. AY-KOOP SİTESİ NO: 17A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>AŞIK VEYSEL MAH. 5733 SK. NO: 123/1A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. NO:41 MEGAPOL TOWER BLOK DAİRE:101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>MERİÇ MAHALLESİ 5746/7 SOKAK NO:11/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>FATİH MAH. ÇAMLIK CAD. NO: 54 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>FATİH MAH.ÇAMLIK CAD.NO:54 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>FATİH MAH. 1187 SK. NO: 10C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SOKAK NO:63 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>KOŞUKAVAK MAH. ABDİ İPEKÇİ CAD. KARADUMAN NO: 33A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>YEŞİLOVA MAHALLESİ 4061 SOKAK NO: 22A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>MEVLANA MAHALLESİ 1744 SOKAK NO: 21A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>HÜRRİYET MAHALLESİ MENDERES CADDESI NO:240/A D:A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO: 76 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4046 SK. NO: 21/1 KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>ADALET MAHALLESİ 1601 SOK. NO:14 DAİRE:101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>M.ALİ AKMAN MAHALLESİ 20/1 SOK. ERBİLEN BLOK NO: 1 İÇ KAPI NO: 6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SOKAK NO: 59A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. NO: 2 B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ADALET MAH. OZAN ABAY CAD. NO: 30 İÇ KAPI NO: Z18 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>AKDENİZ MAHALLESİ 1333 SOKAK NO:12/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>YEŞİLOVA MAHALLESİ 4076 SOKAK NO:37/A ABDURRAHMAN ÇAKAR Sit BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>ATATÜRK MAHALLESİ 925 SOKAK ZÜMRÜT EVLERİ SİTESİ NO: 86 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>YEŞİLOVA MAH. 4076 SK. NURETTİN ÖZER NO: 41 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>YEŞİLOVA MAHALLESİ 4076 SOKAK NURETTİN ÖZER BLOK NO: 41 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>VATAN MAHALLESİ İHSAN ALYANAK BLV. NO: 99 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>MERİÇ MAH. 5746/5 SK. NO: 5 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>KARABAĞLAR MAH. 5770/8 SK. NO: 7 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>ÜÇKUYULAR MAH. 9 SK. NO: 7A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>AKDENİZ MAH. 1334 SK. NO: 7C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>AKDENİZ MAHALLESİ 1329 SOKAK NO:16 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4046 SOKAK NO:3 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>AKDENİZ MAH. CUMHURİYET BUL. NO: 120 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>AOSB MAHALLESİ 10014 SK. NO:5 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>SEYHAN MAHALLESİ 661/5 SOKAK NO:9 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:41/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>MERİÇ MAHALLESİ 5746/8 SK. NO: 24/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>AKDENİZ MAH. 1331 SK. DEREBAŞ IŞ MERKEZI NO: 4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>FATİH MAHALLESİ 1191 SK. NO:32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4042 SK. NO: 27 İÇ KAPI NO: Z1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:48 ATALAY ISHANI BLOK İÇ KAPI NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>AKDENİZ MAH. MİMAR KEMALETTİN CAD. ATALAY ISHANI NO: 48 İÇ KAPI NO: 8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>YENİŞEHİR MAH. 1145/7 SK. NO: 2B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>MERİÇ MAHALLESİ 5646 SOKAK NO:30/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>İSMET KAPTAN MAH. ŞEHİT NEVRES BUL. DEREN PLAZA NO: 10 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>BAHRİYE ÜÇOK MAH. 1762 SK. NO: 9 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>YEŞİLOVA MAHALLESİ 4085 SK. NO: 3 -5 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4042 SOKAK NO: 11 A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SOKAK NO:11/30 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>YEŞİLOVA MAHALLESİ 4070 SK. NO: 55 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOK. NO:78 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>EGEMENLİK MAHALLESİ 6150 SOKAK NO: 8A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>MERİÇ MAHALLESİ 5619 SOKAK NO: 1/B1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>YEŞİLOVA MAHALLESİ 4141 SOKAK NO: 22A İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>BOSTANLI MAH. CENGİZ KOCATOROS SK. ŞÜKRİYEHANIM NO: 80 İÇ KAPI NO: 14 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:3/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>MUAMMER AKAR MAH. 45 SK. DİĞDEM NO: 22 İÇ KAPI NO: 10 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>BUCA OSB MAHALLESİ 2/20 SOKAK NO:57 ZEMİN KAT (BEGOS 3. BÖLGE) BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>AKDENİZ MAHALLESİ 1338 SOKAK NO:28 İÇ KAPI NO: Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>DOĞANLAR MAH. 1503 SK. NO: 21A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK MANİFATURACILAR CAMİSİ Apt. NO: 27/P4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>AKDENİZ MAHALLESİ GAZİ BLV. DOĞAN GÜVEN İŞ MERKEZİ Apt. NO: 52 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:3 İRFAN GİYİM Apt. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8940,11 +8059,6 @@
       <c r="I177" s="2" t="inlineStr">
         <is>
           <t>ETİLER MAHALLESİ BOZKURT CAD. NO:23/A KAHRAMANLAR KONAK / İZMİR</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>14 - KUMAŞ VE TUHAFİYE GRUBU</t>
         </is>
       </c>
     </row>
